--- a/Study 3/Shocks/GCAM/NDC_EI - 2075.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_EI - 2075.xlsx
@@ -11482,7 +11482,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.07170962900595954</v>
+        <v>0.07170962900595955</v>
       </c>
     </row>
     <row r="5">
@@ -11522,7 +11522,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.09773988428987024</v>
+        <v>0.09773988428987022</v>
       </c>
     </row>
     <row r="6">
@@ -11642,7 +11642,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.09282952571668306</v>
+        <v>0.09282952571668307</v>
       </c>
     </row>
     <row r="9">
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.09813077249597228</v>
+        <v>0.0981307724959723</v>
       </c>
     </row>
     <row r="13">
@@ -12002,7 +12002,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.02479133008555157</v>
+        <v>0.02479133008555156</v>
       </c>
     </row>
     <row r="18">
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.03431243933030444</v>
+        <v>0.03431243933030443</v>
       </c>
     </row>
     <row r="22">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.04507244122715813</v>
+        <v>0.04507244122715814</v>
       </c>
     </row>
     <row r="29">
@@ -12602,7 +12602,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.02138983589003038</v>
+        <v>0.02138983589003039</v>
       </c>
     </row>
     <row r="33">
@@ -12922,7 +12922,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.2222912285230559</v>
+        <v>0.222291228523056</v>
       </c>
     </row>
     <row r="41">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.3615907866743343</v>
+        <v>0.3615907866743342</v>
       </c>
     </row>
   </sheetData>
